--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf7-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +97,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H2">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I2">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J2">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.7698411407019</v>
+        <v>6.834606</v>
       </c>
       <c r="N2">
-        <v>6.7698411407019</v>
+        <v>13.669212</v>
       </c>
       <c r="O2">
-        <v>0.6074051537697821</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P2">
-        <v>0.6074051537697821</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q2">
-        <v>152.3804751131342</v>
+        <v>162.582035829976</v>
       </c>
       <c r="R2">
-        <v>152.3804751131342</v>
+        <v>975.4922149798559</v>
       </c>
       <c r="S2">
-        <v>0.5842973081448755</v>
+        <v>0.5523922226490571</v>
       </c>
       <c r="T2">
-        <v>0.5842973081448755</v>
+        <v>0.4755345072849784</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H3">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I3">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J3">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.829257075142636</v>
+        <v>0.856297</v>
       </c>
       <c r="N3">
-        <v>0.829257075142636</v>
+        <v>2.568891</v>
       </c>
       <c r="O3">
-        <v>0.07440278298605235</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P3">
-        <v>0.07440278298605235</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q3">
-        <v>18.66551732527974</v>
+        <v>20.36964669727866</v>
       </c>
       <c r="R3">
-        <v>18.66551732527974</v>
+        <v>183.326820275508</v>
       </c>
       <c r="S3">
-        <v>0.07157223732368088</v>
+        <v>0.06920834984163236</v>
       </c>
       <c r="T3">
-        <v>0.07157223732368088</v>
+        <v>0.08936845196005559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H4">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I4">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J4">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.73648285676271</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N4">
-        <v>2.73648285676271</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O4">
-        <v>0.2455233078376184</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P4">
-        <v>0.2455233078376184</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q4">
-        <v>61.5947330500011</v>
+        <v>6.633071323327556</v>
       </c>
       <c r="R4">
-        <v>61.5947330500011</v>
+        <v>59.697641909948</v>
       </c>
       <c r="S4">
-        <v>0.2361827306962883</v>
+        <v>0.02253666582890133</v>
       </c>
       <c r="T4">
-        <v>0.2361827306962883</v>
+        <v>0.02910150208867471</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H5">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I5">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J5">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.809930450773398</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>0.809930450773398</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.07266875540654688</v>
+        <v>0.004593832943842499</v>
       </c>
       <c r="P5">
-        <v>0.07266875540654688</v>
+        <v>0.005861453899438226</v>
       </c>
       <c r="Q5">
-        <v>18.23049970189541</v>
+        <v>1.287655761500889</v>
       </c>
       <c r="R5">
-        <v>18.23049970189541</v>
+        <v>11.588901853508</v>
       </c>
       <c r="S5">
-        <v>0.0699041783013532</v>
+        <v>0.004374966917293307</v>
       </c>
       <c r="T5">
-        <v>0.0699041783013532</v>
+        <v>0.005649376436075096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.890177099593109</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H6">
-        <v>0.890177099593109</v>
+        <v>71.364188</v>
       </c>
       <c r="I6">
-        <v>0.03804354553380195</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J6">
-        <v>0.03804354553380195</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.7698411407019</v>
+        <v>2.949111</v>
       </c>
       <c r="N6">
-        <v>6.7698411407019</v>
+        <v>8.847333000000001</v>
       </c>
       <c r="O6">
-        <v>0.6074051537697821</v>
+        <v>0.2502796940750712</v>
       </c>
       <c r="P6">
-        <v>0.6074051537697821</v>
+        <v>0.319341801654516</v>
       </c>
       <c r="Q6">
-        <v>6.026357551336122</v>
+        <v>70.153637278956</v>
       </c>
       <c r="R6">
-        <v>6.026357551336122</v>
+        <v>631.382735510604</v>
       </c>
       <c r="S6">
-        <v>0.02310784562490668</v>
+        <v>0.2383555072711995</v>
       </c>
       <c r="T6">
-        <v>0.02310784562490668</v>
+        <v>0.3077874671152317</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.890177099593109</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H7">
-        <v>0.890177099593109</v>
+        <v>71.364188</v>
       </c>
       <c r="I7">
-        <v>0.03804354553380195</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J7">
-        <v>0.03804354553380195</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.829257075142636</v>
+        <v>0.8102765000000001</v>
       </c>
       <c r="N7">
-        <v>0.829257075142636</v>
+        <v>1.620553</v>
       </c>
       <c r="O7">
-        <v>0.07440278298605235</v>
+        <v>0.06876504632623846</v>
       </c>
       <c r="P7">
-        <v>0.07440278298605235</v>
+        <v>0.05849336909740267</v>
       </c>
       <c r="Q7">
-        <v>0.7381856579675365</v>
+        <v>19.27490815932734</v>
       </c>
       <c r="R7">
-        <v>0.7381856579675365</v>
+        <v>115.649448955964</v>
       </c>
       <c r="S7">
-        <v>0.002830545662371467</v>
+        <v>0.06548884263340107</v>
       </c>
       <c r="T7">
-        <v>0.002830545662371467</v>
+        <v>0.05637697859863419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.890177099593109</v>
+        <v>0.07917266666666667</v>
       </c>
       <c r="H8">
-        <v>0.890177099593109</v>
+        <v>0.237518</v>
       </c>
       <c r="I8">
-        <v>0.03804354553380195</v>
+        <v>0.003169682590154255</v>
       </c>
       <c r="J8">
-        <v>0.03804354553380195</v>
+        <v>0.003207830110201345</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.73648285676271</v>
+        <v>6.834606</v>
       </c>
       <c r="N8">
-        <v>2.73648285676271</v>
+        <v>13.669212</v>
       </c>
       <c r="O8">
-        <v>0.2455233078376184</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P8">
-        <v>0.2455233078376184</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q8">
-        <v>2.435954372519294</v>
+        <v>0.541113982636</v>
       </c>
       <c r="R8">
-        <v>2.435954372519294</v>
+        <v>3.246683895816</v>
       </c>
       <c r="S8">
-        <v>0.00934057714133011</v>
+        <v>0.001838500508674726</v>
       </c>
       <c r="T8">
-        <v>0.00934057714133011</v>
+        <v>0.001582698665348977</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +962,1053 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.07917266666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.237518</v>
+      </c>
+      <c r="I9">
+        <v>0.003169682590154255</v>
+      </c>
+      <c r="J9">
+        <v>0.003207830110201345</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.856297</v>
+      </c>
+      <c r="N9">
+        <v>2.568891</v>
+      </c>
+      <c r="O9">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P9">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q9">
+        <v>0.06779531694866667</v>
+      </c>
+      <c r="R9">
+        <v>0.6101578525379999</v>
+      </c>
+      <c r="S9">
+        <v>0.0002303428273812187</v>
+      </c>
+      <c r="T9">
+        <v>0.000297440727170447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.07917266666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.237518</v>
+      </c>
+      <c r="I10">
+        <v>0.003169682590154255</v>
+      </c>
+      <c r="J10">
+        <v>0.003207830110201345</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P10">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q10">
+        <v>0.02207653276422222</v>
+      </c>
+      <c r="R10">
+        <v>0.198688794878</v>
+      </c>
+      <c r="S10">
+        <v>7.500770266382048E-05</v>
+      </c>
+      <c r="T10">
+        <v>9.685713194267467E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.07917266666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.237518</v>
+      </c>
+      <c r="I11">
+        <v>0.003169682590154255</v>
+      </c>
+      <c r="J11">
+        <v>0.003207830110201345</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.162391</v>
+      </c>
+      <c r="O11">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P11">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q11">
+        <v>0.004285642837555556</v>
+      </c>
+      <c r="R11">
+        <v>0.038570785538</v>
+      </c>
+      <c r="S11">
+        <v>1.456099230417464E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.880254830817503E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07917266666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.237518</v>
+      </c>
+      <c r="I12">
+        <v>0.003169682590154255</v>
+      </c>
+      <c r="J12">
+        <v>0.003207830110201345</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.949111</v>
+      </c>
+      <c r="N12">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P12">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q12">
+        <v>0.233488982166</v>
+      </c>
+      <c r="R12">
+        <v>2.101400839494</v>
+      </c>
+      <c r="S12">
+        <v>0.0007933071889788862</v>
+      </c>
+      <c r="T12">
+        <v>0.001024394246793302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07917266666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.237518</v>
+      </c>
+      <c r="I13">
+        <v>0.003169682590154255</v>
+      </c>
+      <c r="J13">
+        <v>0.003207830110201345</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.620553</v>
+      </c>
+      <c r="O13">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P13">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q13">
+        <v>0.06415175124233334</v>
+      </c>
+      <c r="R13">
+        <v>0.384910507454</v>
+      </c>
+      <c r="S13">
+        <v>0.0002179633701514288</v>
+      </c>
+      <c r="T13">
+        <v>0.0001876367906377691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.659254</v>
+      </c>
+      <c r="I14">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J14">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.834606</v>
+      </c>
+      <c r="N14">
+        <v>13.669212</v>
+      </c>
+      <c r="O14">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P14">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q14">
+        <v>1.501913781308</v>
+      </c>
+      <c r="R14">
+        <v>9.011482687848</v>
+      </c>
+      <c r="S14">
+        <v>0.005102934574835792</v>
+      </c>
+      <c r="T14">
+        <v>0.004392932013262046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.659254</v>
+      </c>
+      <c r="I15">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J15">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.856297</v>
+      </c>
+      <c r="N15">
+        <v>2.568891</v>
+      </c>
+      <c r="O15">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P15">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q15">
+        <v>0.1881724074793333</v>
+      </c>
+      <c r="R15">
+        <v>1.693551667314</v>
+      </c>
+      <c r="S15">
+        <v>0.0006393386199040829</v>
+      </c>
+      <c r="T15">
+        <v>0.0008255752791368478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.659254</v>
+      </c>
+      <c r="I16">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J16">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P16">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q16">
+        <v>0.06127553503711111</v>
+      </c>
+      <c r="R16">
+        <v>0.551479815334</v>
+      </c>
+      <c r="S16">
+        <v>0.0002081910760950088</v>
+      </c>
+      <c r="T16">
+        <v>0.0002688362636168039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.890177099593109</v>
-      </c>
-      <c r="H9">
-        <v>0.890177099593109</v>
-      </c>
-      <c r="I9">
-        <v>0.03804354553380195</v>
-      </c>
-      <c r="J9">
-        <v>0.03804354553380195</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="N9">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="O9">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="P9">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="Q9">
-        <v>0.7209815395416027</v>
-      </c>
-      <c r="R9">
-        <v>0.7209815395416027</v>
-      </c>
-      <c r="S9">
-        <v>0.002764577105193683</v>
-      </c>
-      <c r="T9">
-        <v>0.002764577105193683</v>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.659254</v>
+      </c>
+      <c r="I17">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J17">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.162391</v>
+      </c>
+      <c r="O17">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P17">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q17">
+        <v>0.01189521292377778</v>
+      </c>
+      <c r="R17">
+        <v>0.107056916314</v>
+      </c>
+      <c r="S17">
+        <v>4.041543133782006E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.218827702472073E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.659254</v>
+      </c>
+      <c r="I18">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J18">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.949111</v>
+      </c>
+      <c r="N18">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P18">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q18">
+        <v>0.648071074398</v>
+      </c>
+      <c r="R18">
+        <v>5.832639669582001</v>
+      </c>
+      <c r="S18">
+        <v>0.002201900224669653</v>
+      </c>
+      <c r="T18">
+        <v>0.002843304527553581</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.659254</v>
+      </c>
+      <c r="I19">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J19">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.620553</v>
+      </c>
+      <c r="O19">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P19">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q19">
+        <v>0.1780593412436667</v>
+      </c>
+      <c r="R19">
+        <v>1.068356047462</v>
+      </c>
+      <c r="S19">
+        <v>0.0006049782484940512</v>
+      </c>
+      <c r="T19">
+        <v>0.0005208039170720191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.891119</v>
+      </c>
+      <c r="H20">
+        <v>1.782238</v>
+      </c>
+      <c r="I20">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J20">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.834606</v>
+      </c>
+      <c r="N20">
+        <v>13.669212</v>
+      </c>
+      <c r="O20">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P20">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q20">
+        <v>6.090447264114</v>
+      </c>
+      <c r="R20">
+        <v>24.361789056456</v>
+      </c>
+      <c r="S20">
+        <v>0.02069303465155962</v>
+      </c>
+      <c r="T20">
+        <v>0.01187592394653976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.891119</v>
+      </c>
+      <c r="H21">
+        <v>1.782238</v>
+      </c>
+      <c r="I21">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J21">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.856297</v>
+      </c>
+      <c r="N21">
+        <v>2.568891</v>
+      </c>
+      <c r="O21">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P21">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q21">
+        <v>0.763062526343</v>
+      </c>
+      <c r="R21">
+        <v>4.578375158058</v>
+      </c>
+      <c r="S21">
+        <v>0.002592597655669771</v>
+      </c>
+      <c r="T21">
+        <v>0.002231873654673764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.891119</v>
+      </c>
+      <c r="H22">
+        <v>1.782238</v>
+      </c>
+      <c r="I22">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J22">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P22">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q22">
+        <v>0.2484799189996667</v>
+      </c>
+      <c r="R22">
+        <v>1.490879513998</v>
+      </c>
+      <c r="S22">
+        <v>0.0008442407184728868</v>
+      </c>
+      <c r="T22">
+        <v>0.0007267763332431588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.891119</v>
+      </c>
+      <c r="H23">
+        <v>1.782238</v>
+      </c>
+      <c r="I23">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J23">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.162391</v>
+      </c>
+      <c r="O23">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P23">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q23">
+        <v>0.04823656850966667</v>
+      </c>
+      <c r="R23">
+        <v>0.289419411058</v>
+      </c>
+      <c r="S23">
+        <v>0.0001638896029071961</v>
+      </c>
+      <c r="T23">
+        <v>0.0001410866380302345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.891119</v>
+      </c>
+      <c r="H24">
+        <v>1.782238</v>
+      </c>
+      <c r="I24">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J24">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.949111</v>
+      </c>
+      <c r="N24">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P24">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q24">
+        <v>2.628008845209</v>
+      </c>
+      <c r="R24">
+        <v>15.768053071254</v>
+      </c>
+      <c r="S24">
+        <v>0.008928979390223175</v>
+      </c>
+      <c r="T24">
+        <v>0.007686635764937398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.891119</v>
+      </c>
+      <c r="H25">
+        <v>1.782238</v>
+      </c>
+      <c r="I25">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J25">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.620553</v>
+      </c>
+      <c r="O25">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P25">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q25">
+        <v>0.7220527844035001</v>
+      </c>
+      <c r="R25">
+        <v>2.888211137614</v>
+      </c>
+      <c r="S25">
+        <v>0.002453262074191907</v>
+      </c>
+      <c r="T25">
+        <v>0.001407949791058683</v>
       </c>
     </row>
   </sheetData>
